--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H2">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N2">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q2">
-        <v>0.02303238038633333</v>
+        <v>0.05657407463</v>
       </c>
       <c r="R2">
-        <v>0.207291423477</v>
+        <v>0.50916667167</v>
       </c>
       <c r="S2">
-        <v>0.00477002389146529</v>
+        <v>0.008827640390792559</v>
       </c>
       <c r="T2">
-        <v>0.00477002389146529</v>
+        <v>0.008827640390792561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H3">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.983909</v>
       </c>
       <c r="O3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q3">
-        <v>0.008242701026333333</v>
+        <v>0.02663067181</v>
       </c>
       <c r="R3">
-        <v>0.07418430923699999</v>
+        <v>0.23967604629</v>
       </c>
       <c r="S3">
-        <v>0.001707069793322162</v>
+        <v>0.004155366139727114</v>
       </c>
       <c r="T3">
-        <v>0.001707069793322162</v>
+        <v>0.004155366139727115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H4">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N4">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q4">
-        <v>0.0002898082143333333</v>
+        <v>0.001326037406666667</v>
       </c>
       <c r="R4">
-        <v>0.002608273929</v>
+        <v>0.01193433666</v>
       </c>
       <c r="S4">
-        <v>6.001950658704648E-05</v>
+        <v>0.0002069106997745778</v>
       </c>
       <c r="T4">
-        <v>6.001950658704648E-05</v>
+        <v>0.0002069106997745778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
         <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J5">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N5">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q5">
-        <v>1.837465074899</v>
+        <v>1.396963802137</v>
       </c>
       <c r="R5">
-        <v>16.537185674091</v>
+        <v>12.572674219233</v>
       </c>
       <c r="S5">
-        <v>0.380540446101785</v>
+        <v>0.2179778310979283</v>
       </c>
       <c r="T5">
-        <v>0.380540446101785</v>
+        <v>0.2179778310979283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
         <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J6">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.983909</v>
       </c>
       <c r="O6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q6">
         <v>0.657581848019</v>
       </c>
       <c r="R6">
-        <v>5.918236632170999</v>
+        <v>5.918236632171</v>
       </c>
       <c r="S6">
-        <v>0.1361857121596399</v>
+        <v>0.1026070001107244</v>
       </c>
       <c r="T6">
-        <v>0.1361857121596399</v>
+        <v>0.1026070001107244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H7">
         <v>2.983119</v>
       </c>
       <c r="I7">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J7">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N7">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q7">
-        <v>0.023120166623</v>
+        <v>0.03274337705933333</v>
       </c>
       <c r="R7">
-        <v>0.208081499607</v>
+        <v>0.294690393534</v>
       </c>
       <c r="S7">
-        <v>0.004788204489354786</v>
+        <v>0.005109173411148405</v>
       </c>
       <c r="T7">
-        <v>0.004788204489354786</v>
+        <v>0.005109173411148404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H8">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N8">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q8">
-        <v>1.662828470403666</v>
+        <v>2.835653150153333</v>
       </c>
       <c r="R8">
-        <v>14.965456233633</v>
+        <v>25.52087835138</v>
       </c>
       <c r="S8">
-        <v>0.344373069487017</v>
+        <v>0.4424663849348713</v>
       </c>
       <c r="T8">
-        <v>0.344373069487017</v>
+        <v>0.4424663849348714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H9">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.983909</v>
       </c>
       <c r="O9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q9">
-        <v>0.5950838649636666</v>
+        <v>1.334804836006666</v>
       </c>
       <c r="R9">
-        <v>5.355754784673</v>
+        <v>12.01324352406</v>
       </c>
       <c r="S9">
-        <v>0.1232423312610149</v>
+        <v>0.2082787418304377</v>
       </c>
       <c r="T9">
-        <v>0.1232423312610149</v>
+        <v>0.2082787418304378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H10">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N10">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q10">
-        <v>0.02092277661566666</v>
+        <v>0.06646475747111111</v>
       </c>
       <c r="R10">
-        <v>0.188304989541</v>
+        <v>0.5981828172399999</v>
       </c>
       <c r="S10">
-        <v>0.004333123309813894</v>
+        <v>0.01037095138459558</v>
       </c>
       <c r="T10">
-        <v>0.004333123309813894</v>
+        <v>0.01037095138459558</v>
       </c>
     </row>
   </sheetData>
